--- a/back-end/students.xlsx
+++ b/back-end/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Imperious\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A66AF6-86C7-4D43-931A-997E3AFFD2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D2AD1F-6298-42FD-9104-DACA2B57603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01597273-05B8-4931-B00F-A95AA2C1BDCF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="152">
   <si>
     <t>Mogan Ram</t>
   </si>
@@ -126,9 +126,6 @@
     <t>is_alumni</t>
   </si>
   <si>
-    <t>6176AC21UCS100</t>
-  </si>
-  <si>
     <t>test_alumni</t>
   </si>
   <si>
@@ -436,6 +433,63 @@
   </si>
   <si>
     <t>6176AC21UCS167</t>
+  </si>
+  <si>
+    <t>6176AC20UCS001</t>
+  </si>
+  <si>
+    <t>6176AC20UCS002</t>
+  </si>
+  <si>
+    <t>6176AC20UCS003</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>6176AC21UEC001</t>
+  </si>
+  <si>
+    <t>ECE</t>
+  </si>
+  <si>
+    <t>Bruce Willis</t>
+  </si>
+  <si>
+    <t>6176AC21UEC002</t>
+  </si>
+  <si>
+    <t>Keanu Reeves</t>
+  </si>
+  <si>
+    <t>6176AC21UEE001</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>6176AC21UME001</t>
+  </si>
+  <si>
+    <t>MECH</t>
+  </si>
+  <si>
+    <t>Matt Daemon</t>
+  </si>
+  <si>
+    <t>6176AC21UAE001</t>
+  </si>
+  <si>
+    <t>AERO</t>
+  </si>
+  <si>
+    <t>alumni_two</t>
+  </si>
+  <si>
+    <t>alumni_three</t>
   </si>
 </sst>
 </file>
@@ -851,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63635F2-B6C9-4413-A5D1-D48FCAA9EB18}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,10 +938,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -901,10 +955,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -918,10 +972,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -936,10 +990,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
@@ -953,10 +1007,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -970,10 +1024,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -987,10 +1041,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -1004,10 +1058,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -1021,10 +1075,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
@@ -1038,10 +1092,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -1055,10 +1109,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -1072,10 +1126,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
@@ -1089,10 +1143,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
@@ -1106,10 +1160,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
@@ -1123,10 +1177,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
@@ -1140,10 +1194,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
@@ -1157,10 +1211,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
@@ -1174,10 +1228,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
@@ -1191,10 +1245,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
@@ -1208,10 +1262,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
@@ -1225,10 +1279,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
@@ -1242,10 +1296,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2</v>
@@ -1259,10 +1313,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2</v>
@@ -1276,10 +1330,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2</v>
@@ -1293,10 +1347,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
@@ -1310,10 +1364,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>2</v>
@@ -1327,10 +1381,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
@@ -1344,10 +1398,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
@@ -1361,10 +1415,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2</v>
@@ -1378,10 +1432,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2</v>
@@ -1395,10 +1449,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -1412,10 +1466,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2</v>
@@ -1429,10 +1483,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
@@ -1446,10 +1500,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>2</v>
@@ -1463,10 +1517,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2</v>
@@ -1480,10 +1534,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2</v>
@@ -1497,10 +1551,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
@@ -1514,10 +1568,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2</v>
@@ -1531,10 +1585,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2</v>
@@ -1548,10 +1602,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2</v>
@@ -1565,10 +1619,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
@@ -1582,10 +1636,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
@@ -1599,10 +1653,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
@@ -1616,10 +1670,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>2</v>
@@ -1633,10 +1687,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2</v>
@@ -1650,10 +1704,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
@@ -1667,10 +1721,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
@@ -1684,10 +1738,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2</v>
@@ -1701,10 +1755,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2</v>
@@ -1718,10 +1772,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -1735,10 +1789,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
@@ -1956,10 +2010,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2</v>
@@ -1969,6 +2023,125 @@
       </c>
       <c r="E65" s="2" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E66" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2020</v>
+      </c>
+      <c r="E67" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E68" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E69" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E70" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E71" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E72" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
